--- a/REGULAR/LUCIANO, ADELAIDA.xlsx
+++ b/REGULAR/LUCIANO, ADELAIDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B734A197-813C-4153-B347-97360ED33C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B6B467-1306-48E1-BA86-DD78D039C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="466">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1443,6 +1443,9 @@
   </si>
   <si>
     <t>TOTAL SL = 268.982</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1835,6 +1838,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1870,27 +1894,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4256,9 +4259,9 @@
   <dimension ref="A2:K598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A587" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="G594" sqref="G594"/>
+      <pane ySplit="3576" topLeftCell="A569" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E585" sqref="E585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4280,64 +4283,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="59" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4363,18 +4366,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4438,7 +4441,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="57" t="s">
         <v>462</v>
       </c>
       <c r="C10" s="13">
@@ -17492,13 +17495,13 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A577" s="63"/>
-      <c r="B577" s="64" t="s">
+      <c r="A577" s="51"/>
+      <c r="B577" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="C577" s="65"/>
-      <c r="D577" s="64"/>
-      <c r="E577" s="66"/>
+      <c r="C577" s="53"/>
+      <c r="D577" s="52"/>
+      <c r="E577" s="54"/>
       <c r="F577" s="11"/>
       <c r="G577" s="13"/>
       <c r="H577" s="11"/>
@@ -17510,13 +17513,13 @@
       <c r="A578" s="40"/>
       <c r="B578" s="11"/>
       <c r="C578" s="13"/>
-      <c r="D578" s="67" t="s">
+      <c r="D578" s="55" t="s">
         <v>463</v>
       </c>
       <c r="E578" s="9"/>
       <c r="F578" s="11"/>
       <c r="G578" s="13"/>
-      <c r="H578" s="67" t="s">
+      <c r="H578" s="55" t="s">
         <v>464</v>
       </c>
       <c r="I578" s="9"/>
@@ -17532,13 +17535,13 @@
       <c r="D579" s="11"/>
       <c r="E579" s="9"/>
       <c r="F579" s="11"/>
-      <c r="G579" s="65" t="s">
+      <c r="G579" s="53" t="s">
         <v>460</v>
       </c>
-      <c r="H579" s="64"/>
-      <c r="I579" s="66"/>
-      <c r="J579" s="64"/>
-      <c r="K579" s="68"/>
+      <c r="H579" s="52"/>
+      <c r="I579" s="54"/>
+      <c r="J579" s="52"/>
+      <c r="K579" s="56"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
@@ -17890,7 +17893,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17908,17 +17911,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -17988,6 +17991,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>465</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18001,14 +18007,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>328.72800000000012</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/LUCIANO, ADELAIDA.xlsx
+++ b/REGULAR/LUCIANO, ADELAIDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B6B467-1306-48E1-BA86-DD78D039C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="467">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1442,16 +1441,19 @@
     <t>TOTAL VL = 59.746</t>
   </si>
   <si>
-    <t>TOTAL SL = 268.982</t>
-  </si>
-  <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 267.982</t>
+  </si>
+  <si>
+    <t>6/8,9/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1690,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1857,6 +1859,9 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2343,7 +2348,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2391,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2455,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2515,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2581,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2644,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2742,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2801,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2866,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2909,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2984,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3170,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3236,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,7 +3294,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,7 +3360,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,7 +3416,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3491,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,7 +3534,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3595,7 +3600,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3651,7 +3656,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3749,7 +3754,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3812,7 +3817,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,25 +3883,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K599" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3908,13 +3913,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3923,14 +3928,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4234,7 +4239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4244,7 +4249,7 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4252,97 +4257,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K598"/>
+  <dimension ref="A2:K599"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A569" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A569" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E585" sqref="E585"/>
+      <selection pane="bottomLeft" activeCell="K579" sqref="K579"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="65" t="s">
         <v>458</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4350,7 +4355,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4363,24 +4368,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4434,12 +4439,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>268.98199999999997</v>
+        <v>267.98199999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="57" t="s">
         <v>462</v>
@@ -4458,7 +4463,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>43</v>
       </c>
@@ -4480,7 +4485,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>33239</v>
       </c>
@@ -4500,7 +4505,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>33270</v>
       </c>
@@ -4526,7 +4531,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>33298</v>
       </c>
@@ -4546,7 +4551,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>33329</v>
       </c>
@@ -4566,7 +4571,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>33359</v>
       </c>
@@ -4586,7 +4591,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>33390</v>
       </c>
@@ -4612,7 +4617,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>33420</v>
       </c>
@@ -4632,7 +4637,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>33451</v>
       </c>
@@ -4652,7 +4657,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>33482</v>
       </c>
@@ -4672,7 +4677,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>33512</v>
       </c>
@@ -4700,7 +4705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>33543</v>
       </c>
@@ -4720,7 +4725,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>33573</v>
       </c>
@@ -4740,7 +4745,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>44</v>
       </c>
@@ -4762,7 +4767,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>33604</v>
       </c>
@@ -4782,7 +4787,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>33635</v>
       </c>
@@ -4802,7 +4807,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>33664</v>
       </c>
@@ -4826,7 +4831,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>33695</v>
       </c>
@@ -4846,7 +4851,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>33725</v>
       </c>
@@ -4866,7 +4871,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>33756</v>
       </c>
@@ -4886,7 +4891,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>33786</v>
       </c>
@@ -4906,7 +4911,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>33817</v>
       </c>
@@ -4928,7 +4933,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>33848</v>
       </c>
@@ -4948,7 +4953,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>33878</v>
       </c>
@@ -4972,7 +4977,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>33909</v>
       </c>
@@ -4992,7 +4997,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>33939</v>
       </c>
@@ -5012,7 +5017,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>46</v>
       </c>
@@ -5034,7 +5039,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>33970</v>
       </c>
@@ -5054,7 +5059,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34001</v>
       </c>
@@ -5074,7 +5079,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>34029</v>
       </c>
@@ -5094,7 +5099,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34060</v>
       </c>
@@ -5114,7 +5119,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>34090</v>
       </c>
@@ -5134,7 +5139,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>34121</v>
       </c>
@@ -5154,7 +5159,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>34151</v>
       </c>
@@ -5174,7 +5179,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>34182</v>
       </c>
@@ -5194,7 +5199,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>34213</v>
       </c>
@@ -5214,7 +5219,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>34243</v>
       </c>
@@ -5238,7 +5243,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>34274</v>
       </c>
@@ -5258,7 +5263,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>34304</v>
       </c>
@@ -5282,7 +5287,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>50</v>
       </c>
@@ -5304,7 +5309,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>34335</v>
       </c>
@@ -5324,7 +5329,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>34366</v>
       </c>
@@ -5344,7 +5349,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>34394</v>
       </c>
@@ -5364,7 +5369,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>34425</v>
       </c>
@@ -5388,7 +5393,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>34455</v>
       </c>
@@ -5408,7 +5413,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>34486</v>
       </c>
@@ -5428,7 +5433,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>34516</v>
       </c>
@@ -5452,7 +5457,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>34547</v>
       </c>
@@ -5472,7 +5477,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>34578</v>
       </c>
@@ -5492,7 +5497,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>34608</v>
       </c>
@@ -5512,7 +5517,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>34639</v>
       </c>
@@ -5532,7 +5537,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>34669</v>
       </c>
@@ -5552,7 +5557,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
         <v>51</v>
       </c>
@@ -5574,7 +5579,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>34700</v>
       </c>
@@ -5594,7 +5599,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>34731</v>
       </c>
@@ -5614,7 +5619,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>34759</v>
       </c>
@@ -5640,7 +5645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>34790</v>
       </c>
@@ -5660,7 +5665,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>34820</v>
       </c>
@@ -5680,7 +5685,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>34851</v>
       </c>
@@ -5700,7 +5705,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>34881</v>
       </c>
@@ -5720,7 +5725,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>34912</v>
       </c>
@@ -5740,7 +5745,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>34943</v>
       </c>
@@ -5766,7 +5771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>34973</v>
       </c>
@@ -5786,7 +5791,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>35004</v>
       </c>
@@ -5806,7 +5811,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>35034</v>
       </c>
@@ -5830,7 +5835,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>59</v>
       </c>
@@ -5848,7 +5853,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>35065</v>
       </c>
@@ -5868,7 +5873,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>35096</v>
@@ -5889,7 +5894,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A87" si="0">EDATE(A78,1)</f>
         <v>35125</v>
@@ -5916,7 +5921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -5937,7 +5942,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -5964,7 +5969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -5989,7 +5994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -6010,7 +6015,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -6039,7 +6044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -6066,7 +6071,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -6089,7 +6094,7 @@
       </c>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -6112,7 +6117,7 @@
       </c>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A87,1)</f>
         <v>35400</v>
@@ -6133,7 +6138,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>60</v>
       </c>
@@ -6155,7 +6160,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35431</v>
       </c>
@@ -6175,7 +6180,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>35462</v>
       </c>
@@ -6195,7 +6200,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>35490</v>
       </c>
@@ -6215,7 +6220,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>35521</v>
       </c>
@@ -6239,7 +6244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>35551</v>
       </c>
@@ -6259,7 +6264,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>35582</v>
       </c>
@@ -6285,7 +6290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>35612</v>
       </c>
@@ -6305,7 +6310,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>35643</v>
       </c>
@@ -6325,7 +6330,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>35674</v>
       </c>
@@ -6345,7 +6350,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>35704</v>
       </c>
@@ -6371,7 +6376,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>35735</v>
       </c>
@@ -6391,7 +6396,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>35765</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>80</v>
@@ -6443,7 +6448,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>61</v>
       </c>
@@ -6465,7 +6470,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>35796</v>
       </c>
@@ -6489,7 +6494,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>35827</v>
       </c>
@@ -6513,7 +6518,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>35855</v>
       </c>
@@ -6533,7 +6538,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>35886</v>
       </c>
@@ -6559,7 +6564,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>35916</v>
       </c>
@@ -6583,7 +6588,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>35947</v>
       </c>
@@ -6605,7 +6610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>35977</v>
       </c>
@@ -6629,7 +6634,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36008</v>
       </c>
@@ -6653,7 +6658,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36039</v>
       </c>
@@ -6673,7 +6678,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>36069</v>
       </c>
@@ -6693,7 +6698,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36100</v>
       </c>
@@ -6717,7 +6722,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36130</v>
       </c>
@@ -6743,7 +6748,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>92</v>
@@ -6767,7 +6772,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
         <v>82</v>
       </c>
@@ -6789,7 +6794,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36161</v>
       </c>
@@ -6813,7 +6818,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>36192</v>
       </c>
@@ -6837,7 +6842,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36220</v>
       </c>
@@ -6863,7 +6868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36251</v>
       </c>
@@ -6889,7 +6894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>36281</v>
       </c>
@@ -6913,7 +6918,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>36312</v>
       </c>
@@ -6937,7 +6942,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>36342</v>
       </c>
@@ -6961,7 +6966,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>36373</v>
       </c>
@@ -6985,7 +6990,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>36404</v>
       </c>
@@ -7009,7 +7014,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36434</v>
       </c>
@@ -7029,7 +7034,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>36465</v>
       </c>
@@ -7057,7 +7062,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>36495</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>105</v>
@@ -7103,7 +7108,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="47" t="s">
         <v>106</v>
       </c>
@@ -7121,7 +7126,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>36526</v>
       </c>
@@ -7147,7 +7152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>109</v>
@@ -7171,7 +7176,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36557</v>
       </c>
@@ -7195,7 +7200,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>36586</v>
       </c>
@@ -7221,7 +7226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>112</v>
@@ -7247,7 +7252,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>36617</v>
       </c>
@@ -7271,7 +7276,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>36647</v>
       </c>
@@ -7297,7 +7302,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>115</v>
@@ -7323,7 +7328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>117</v>
@@ -7343,7 +7348,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="49"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>36678</v>
       </c>
@@ -7367,7 +7372,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>36708</v>
       </c>
@@ -7387,7 +7392,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>36739</v>
       </c>
@@ -7411,7 +7416,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>36770</v>
       </c>
@@ -7431,7 +7436,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>36800</v>
       </c>
@@ -7451,7 +7456,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>36831</v>
       </c>
@@ -7477,7 +7482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>114</v>
@@ -7501,7 +7506,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>113</v>
@@ -7521,7 +7526,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>36861</v>
       </c>
@@ -7545,7 +7550,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
         <v>122</v>
       </c>
@@ -7567,7 +7572,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>36892</v>
       </c>
@@ -7591,7 +7596,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>36923</v>
       </c>
@@ -7617,7 +7622,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>36951</v>
       </c>
@@ -7637,7 +7642,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>36982</v>
       </c>
@@ -7661,7 +7666,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37012</v>
       </c>
@@ -7685,7 +7690,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37043</v>
       </c>
@@ -7709,7 +7714,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37073</v>
       </c>
@@ -7733,7 +7738,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37104</v>
       </c>
@@ -7757,7 +7762,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>37135</v>
       </c>
@@ -7781,7 +7786,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37165</v>
       </c>
@@ -7805,7 +7810,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>37196</v>
       </c>
@@ -7835,7 +7840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>138</v>
@@ -7863,7 +7868,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37226</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>140</v>
@@ -7913,7 +7918,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="50"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
         <v>123</v>
       </c>
@@ -7935,7 +7940,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>37257</v>
       </c>
@@ -7957,7 +7962,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37288</v>
       </c>
@@ -7983,7 +7988,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>142</v>
@@ -8009,7 +8014,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37316</v>
       </c>
@@ -8033,7 +8038,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37347</v>
       </c>
@@ -8057,7 +8062,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37377</v>
       </c>
@@ -8083,7 +8088,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>146</v>
@@ -8109,7 +8114,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>146</v>
@@ -8131,7 +8136,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>147</v>
@@ -8153,7 +8158,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="49"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>37408</v>
       </c>
@@ -8177,7 +8182,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37438</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>151</v>
@@ -8227,7 +8232,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>37469</v>
       </c>
@@ -8251,7 +8256,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>37500</v>
       </c>
@@ -8275,7 +8280,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>37530</v>
       </c>
@@ -8299,7 +8304,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>37561</v>
       </c>
@@ -8325,7 +8330,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>155</v>
@@ -8349,7 +8354,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>37591</v>
       </c>
@@ -8375,7 +8380,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>157</v>
@@ -8399,7 +8404,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>158</v>
@@ -8419,7 +8424,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
         <v>124</v>
       </c>
@@ -8441,7 +8446,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37622</v>
       </c>
@@ -8465,7 +8470,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>37653</v>
       </c>
@@ -8489,7 +8494,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>37681</v>
       </c>
@@ -8509,7 +8514,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37712</v>
       </c>
@@ -8529,7 +8534,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37742</v>
       </c>
@@ -8555,7 +8560,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>37773</v>
       </c>
@@ -8575,7 +8580,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>37803</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37834</v>
       </c>
@@ -8623,7 +8628,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>37865</v>
       </c>
@@ -8647,7 +8652,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>37895</v>
       </c>
@@ -8671,7 +8676,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>37926</v>
       </c>
@@ -8695,7 +8700,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>37956</v>
       </c>
@@ -8719,7 +8724,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>169</v>
@@ -8743,7 +8748,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="47" t="s">
         <v>125</v>
       </c>
@@ -8765,7 +8770,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>37987</v>
       </c>
@@ -8791,7 +8796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>115</v>
@@ -8817,7 +8822,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>172</v>
@@ -8843,7 +8848,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>38018</v>
       </c>
@@ -8869,7 +8874,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38047</v>
       </c>
@@ -8893,7 +8898,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38078</v>
       </c>
@@ -8915,7 +8920,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38108</v>
       </c>
@@ -8939,7 +8944,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38139</v>
       </c>
@@ -8965,7 +8970,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38169</v>
       </c>
@@ -8989,7 +8994,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38200</v>
       </c>
@@ -9013,7 +9018,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38231</v>
       </c>
@@ -9037,7 +9042,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38261</v>
       </c>
@@ -9063,7 +9068,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>182</v>
@@ -9087,7 +9092,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="49"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38292</v>
       </c>
@@ -9113,7 +9118,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>183</v>
@@ -9137,7 +9142,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="49"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38322</v>
       </c>
@@ -9161,7 +9166,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="47" t="s">
         <v>185</v>
       </c>
@@ -9179,7 +9184,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38353</v>
       </c>
@@ -9205,7 +9210,7 @@
         <v>38362</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>192</v>
@@ -9229,7 +9234,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="50"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>38384</v>
@@ -9254,7 +9259,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" ref="A221:A226" si="1">EDATE(A220,1)</f>
         <v>38412</v>
@@ -9281,7 +9286,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>194</v>
@@ -9305,7 +9310,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A221,1)</f>
         <v>38443</v>
@@ -9330,7 +9335,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -9355,7 +9360,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -9380,7 +9385,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -9407,7 +9412,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>149</v>
@@ -9433,7 +9438,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>200</v>
@@ -9457,7 +9462,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A226,1)</f>
         <v>38565</v>
@@ -9482,7 +9487,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>107</v>
@@ -9508,7 +9513,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>167</v>
@@ -9528,7 +9533,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A229,1)</f>
         <v>38596</v>
@@ -9555,7 +9560,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>107</v>
@@ -9579,7 +9584,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>201</v>
@@ -9599,7 +9604,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>107</v>
@@ -9621,7 +9626,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>107</v>
@@ -9643,7 +9648,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>202</v>
@@ -9663,7 +9668,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="49"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A232,1)</f>
         <v>38626</v>
@@ -9690,7 +9695,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>204</v>
@@ -9714,7 +9719,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A238,1)</f>
         <v>38657</v>
@@ -9735,7 +9740,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A240,1)</f>
         <v>38687</v>
@@ -9762,7 +9767,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="47" t="s">
         <v>186</v>
       </c>
@@ -9784,7 +9789,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38718</v>
       </c>
@@ -9808,7 +9813,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>208</v>
@@ -9834,7 +9839,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>38749</v>
       </c>
@@ -9858,7 +9863,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>38777</v>
       </c>
@@ -9884,7 +9889,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>211</v>
@@ -9908,7 +9913,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>38808</v>
       </c>
@@ -9932,7 +9937,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>214</v>
@@ -9958,7 +9963,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>38838</v>
       </c>
@@ -9982,7 +9987,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>38869</v>
       </c>
@@ -10006,7 +10011,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>38899</v>
       </c>
@@ -10030,7 +10035,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>38930</v>
       </c>
@@ -10054,7 +10059,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>38961</v>
       </c>
@@ -10078,7 +10083,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>38991</v>
       </c>
@@ -10102,7 +10107,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>39022</v>
       </c>
@@ -10126,7 +10131,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39052</v>
       </c>
@@ -10150,7 +10155,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>223</v>
@@ -10174,7 +10179,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="47" t="s">
         <v>187</v>
       </c>
@@ -10196,7 +10201,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>39083</v>
       </c>
@@ -10220,7 +10225,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>225</v>
@@ -10246,7 +10251,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>39114</v>
       </c>
@@ -10270,7 +10275,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>39142</v>
       </c>
@@ -10294,7 +10299,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39173</v>
       </c>
@@ -10318,7 +10323,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>39203</v>
       </c>
@@ -10344,7 +10349,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>229</v>
@@ -10368,7 +10373,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="50"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>39234</v>
       </c>
@@ -10392,7 +10397,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>39264</v>
       </c>
@@ -10416,7 +10421,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>39295</v>
       </c>
@@ -10442,7 +10447,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>149</v>
@@ -10468,7 +10473,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>232</v>
@@ -10492,7 +10497,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>39326</v>
       </c>
@@ -10516,7 +10521,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39356</v>
       </c>
@@ -10540,7 +10545,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>39387</v>
       </c>
@@ -10564,7 +10569,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>39417</v>
       </c>
@@ -10592,7 +10597,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>236</v>
@@ -10618,7 +10623,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="47" t="s">
         <v>188</v>
       </c>
@@ -10640,7 +10645,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39448</v>
       </c>
@@ -10664,7 +10669,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>239</v>
@@ -10686,7 +10691,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>240</v>
@@ -10712,7 +10717,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>39479</v>
       </c>
@@ -10736,7 +10741,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>241</v>
@@ -10762,7 +10767,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>39508</v>
       </c>
@@ -10786,7 +10791,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>242</v>
@@ -10810,7 +10815,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39539</v>
       </c>
@@ -10834,7 +10839,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39569</v>
       </c>
@@ -10860,7 +10865,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>246</v>
@@ -10886,7 +10891,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>39600</v>
       </c>
@@ -10908,7 +10913,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -10928,7 +10933,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39630</v>
       </c>
@@ -10954,7 +10959,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>165</v>
@@ -10982,7 +10987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39661</v>
       </c>
@@ -11006,7 +11011,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>39692</v>
       </c>
@@ -11032,7 +11037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>251</v>
@@ -11056,7 +11061,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>39722</v>
       </c>
@@ -11080,7 +11085,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>252</v>
@@ -11104,7 +11109,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39753</v>
       </c>
@@ -11130,7 +11135,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>201</v>
@@ -11148,7 +11153,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>254</v>
@@ -11168,7 +11173,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>39783</v>
       </c>
@@ -11194,7 +11199,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>257</v>
@@ -11214,7 +11219,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="47" t="s">
         <v>189</v>
       </c>
@@ -11236,7 +11241,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>39814</v>
       </c>
@@ -11260,7 +11265,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>107</v>
@@ -11282,7 +11287,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>260</v>
@@ -11302,7 +11307,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>39845</v>
       </c>
@@ -11328,7 +11333,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>201</v>
@@ -11348,7 +11353,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>149</v>
@@ -11368,7 +11373,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>263</v>
@@ -11388,7 +11393,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>39873</v>
       </c>
@@ -11412,7 +11417,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39904</v>
       </c>
@@ -11438,7 +11443,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>266</v>
@@ -11462,7 +11467,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>39934</v>
       </c>
@@ -11488,7 +11493,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>269</v>
@@ -11508,7 +11513,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39965</v>
       </c>
@@ -11532,7 +11537,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>107</v>
@@ -11554,7 +11559,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>270</v>
@@ -11574,7 +11579,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39995</v>
       </c>
@@ -11598,7 +11603,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>40026</v>
       </c>
@@ -11622,7 +11627,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>40057</v>
       </c>
@@ -11646,7 +11651,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40087</v>
       </c>
@@ -11672,7 +11677,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>40118</v>
       </c>
@@ -11696,7 +11701,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>40148</v>
       </c>
@@ -11722,7 +11727,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>278</v>
@@ -11742,7 +11747,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="47" t="s">
         <v>190</v>
       </c>
@@ -11764,7 +11769,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>40179</v>
       </c>
@@ -11788,7 +11793,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>40210</v>
       </c>
@@ -11814,7 +11819,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>283</v>
@@ -11834,7 +11839,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>284</v>
@@ -11854,7 +11859,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40238</v>
       </c>
@@ -11882,7 +11887,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>40269</v>
       </c>
@@ -11910,7 +11915,7 @@
         <v>40284</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>40299</v>
       </c>
@@ -11938,7 +11943,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>40330</v>
       </c>
@@ -11966,7 +11971,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40360</v>
       </c>
@@ -11994,7 +11999,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40391</v>
       </c>
@@ -12022,7 +12027,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>40422</v>
       </c>
@@ -12046,7 +12051,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>40452</v>
       </c>
@@ -12070,7 +12075,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40483</v>
       </c>
@@ -12094,7 +12099,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>40513</v>
       </c>
@@ -12118,7 +12123,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>169</v>
@@ -12138,7 +12143,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="47" t="s">
         <v>280</v>
       </c>
@@ -12156,7 +12161,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40544</v>
       </c>
@@ -12182,7 +12187,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>244</v>
@@ -12206,7 +12211,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>201</v>
@@ -12228,7 +12233,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>300</v>
@@ -12254,7 +12259,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>40575</v>
       </c>
@@ -12274,7 +12279,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40603</v>
       </c>
@@ -12294,7 +12299,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>40634</v>
       </c>
@@ -12320,7 +12325,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>304</v>
@@ -12342,7 +12347,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40664</v>
       </c>
@@ -12368,7 +12373,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>115</v>
@@ -12390,7 +12395,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>307</v>
@@ -12412,7 +12417,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40695</v>
       </c>
@@ -12438,7 +12443,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>309</v>
@@ -12460,7 +12465,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>201</v>
@@ -12480,7 +12485,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>313</v>
@@ -12504,7 +12509,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>40725</v>
       </c>
@@ -12528,7 +12533,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40756</v>
       </c>
@@ -12552,7 +12557,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>40787</v>
       </c>
@@ -12576,7 +12581,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40817</v>
       </c>
@@ -12604,7 +12609,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>40848</v>
       </c>
@@ -12628,7 +12633,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>318</v>
@@ -12648,7 +12653,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40878</v>
       </c>
@@ -12674,7 +12679,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>319</v>
@@ -12698,7 +12703,7 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="47" t="s">
         <v>281</v>
       </c>
@@ -12716,7 +12721,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>40909</v>
       </c>
@@ -12742,7 +12747,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>296</v>
@@ -12762,7 +12767,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40940</v>
       </c>
@@ -12786,7 +12791,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>207</v>
@@ -12806,7 +12811,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>115</v>
@@ -12826,7 +12831,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>325</v>
@@ -12844,7 +12849,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40969</v>
       </c>
@@ -12872,7 +12877,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>41000</v>
       </c>
@@ -12896,7 +12901,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41030</v>
       </c>
@@ -12920,7 +12925,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41061</v>
       </c>
@@ -12946,7 +12951,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>333</v>
@@ -12966,7 +12971,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>41091</v>
       </c>
@@ -12994,7 +12999,7 @@
         <v>41107</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41122</v>
       </c>
@@ -13024,7 +13029,7 @@
         <v>41150</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41153</v>
       </c>
@@ -13054,7 +13059,7 @@
         <v>41158</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41183</v>
       </c>
@@ -13080,7 +13085,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>337</v>
@@ -13102,7 +13107,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="50"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41214</v>
       </c>
@@ -13126,7 +13131,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>41244</v>
       </c>
@@ -13150,7 +13155,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>42</v>
@@ -13172,7 +13177,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>337</v>
@@ -13192,7 +13197,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="47" t="s">
         <v>321</v>
       </c>
@@ -13214,7 +13219,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>41275</v>
       </c>
@@ -13238,7 +13243,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>341</v>
@@ -13258,7 +13263,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>41306</v>
       </c>
@@ -13282,7 +13287,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41334</v>
       </c>
@@ -13306,7 +13311,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>41365</v>
       </c>
@@ -13332,7 +13337,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>344</v>
@@ -13356,7 +13361,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>41395</v>
       </c>
@@ -13384,7 +13389,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41426</v>
       </c>
@@ -13410,7 +13415,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>349</v>
@@ -13432,7 +13437,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="49"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41456</v>
       </c>
@@ -13460,7 +13465,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41487</v>
       </c>
@@ -13484,7 +13489,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>41518</v>
       </c>
@@ -13510,7 +13515,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41548</v>
       </c>
@@ -13538,7 +13543,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41579</v>
       </c>
@@ -13564,7 +13569,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>41609</v>
       </c>
@@ -13590,7 +13595,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>355</v>
@@ -13612,7 +13617,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="47" t="s">
         <v>322</v>
       </c>
@@ -13634,7 +13639,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>41640</v>
       </c>
@@ -13660,7 +13665,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>358</v>
@@ -13680,7 +13685,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>41671</v>
       </c>
@@ -13704,7 +13709,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>41699</v>
       </c>
@@ -13730,7 +13735,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>41730</v>
       </c>
@@ -13754,7 +13759,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>149</v>
@@ -13776,7 +13781,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>239</v>
@@ -13798,7 +13803,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>361</v>
@@ -13824,7 +13829,7 @@
         <v>41739</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -13844,7 +13849,7 @@
         <v>41787</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41760</v>
       </c>
@@ -13868,7 +13873,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>289</v>
@@ -13892,7 +13897,7 @@
         <v>41817</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>41791</v>
       </c>
@@ -13918,7 +13923,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>41821</v>
       </c>
@@ -13944,7 +13949,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>367</v>
@@ -13964,7 +13969,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>41852</v>
       </c>
@@ -13990,7 +13995,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>368</v>
@@ -14010,7 +14015,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>41883</v>
       </c>
@@ -14036,7 +14041,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>107</v>
@@ -14058,7 +14063,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>207</v>
@@ -14078,7 +14083,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>369</v>
@@ -14098,7 +14103,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41913</v>
       </c>
@@ -14124,7 +14129,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>370</v>
@@ -14144,7 +14149,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>41944</v>
       </c>
@@ -14170,7 +14175,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>149</v>
@@ -14192,7 +14197,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>107</v>
@@ -14214,7 +14219,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>371</v>
@@ -14234,7 +14239,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>41974</v>
       </c>
@@ -14258,7 +14263,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="47" t="s">
         <v>323</v>
       </c>
@@ -14280,7 +14285,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42005</v>
       </c>
@@ -14306,7 +14311,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>42036</v>
       </c>
@@ -14332,7 +14337,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42064</v>
       </c>
@@ -14358,7 +14363,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42095</v>
       </c>
@@ -14382,7 +14387,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>42125</v>
       </c>
@@ -14408,7 +14413,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>42156</v>
       </c>
@@ -14434,7 +14439,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>42186</v>
       </c>
@@ -14458,7 +14463,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>385</v>
@@ -14480,7 +14485,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>42217</v>
       </c>
@@ -14504,7 +14509,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>386</v>
@@ -14524,7 +14529,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>42248</v>
       </c>
@@ -14548,7 +14553,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>42278</v>
       </c>
@@ -14572,7 +14577,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>388</v>
@@ -14596,7 +14601,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42309</v>
       </c>
@@ -14622,7 +14627,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>389</v>
@@ -14644,7 +14649,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42339</v>
       </c>
@@ -14672,7 +14677,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -14692,7 +14697,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="47" t="s">
         <v>398</v>
       </c>
@@ -14710,7 +14715,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42370</v>
       </c>
@@ -14730,7 +14735,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42401</v>
       </c>
@@ -14750,7 +14755,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42430</v>
       </c>
@@ -14770,7 +14775,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>42461</v>
       </c>
@@ -14790,7 +14795,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42491</v>
       </c>
@@ -14810,7 +14815,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42522</v>
       </c>
@@ -14830,7 +14835,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>42552</v>
       </c>
@@ -14850,7 +14855,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42583</v>
       </c>
@@ -14876,7 +14881,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>107</v>
@@ -14898,7 +14903,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42614</v>
       </c>
@@ -14918,7 +14923,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42644</v>
       </c>
@@ -14938,7 +14943,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>42675</v>
       </c>
@@ -14958,7 +14963,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>42705</v>
       </c>
@@ -14982,7 +14987,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>42</v>
@@ -15002,7 +15007,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="47" t="s">
         <v>399</v>
       </c>
@@ -15024,7 +15029,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>42736</v>
       </c>
@@ -15048,7 +15053,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>84</v>
@@ -15070,7 +15075,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>115</v>
@@ -15092,7 +15097,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>115</v>
@@ -15114,7 +15119,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>42767</v>
       </c>
@@ -15134,7 +15139,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>42795</v>
       </c>
@@ -15160,7 +15165,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>114</v>
@@ -15182,7 +15187,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>42826</v>
       </c>
@@ -15202,7 +15207,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>42856</v>
       </c>
@@ -15222,7 +15227,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>42887</v>
       </c>
@@ -15248,7 +15253,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>107</v>
@@ -15270,7 +15275,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>42917</v>
       </c>
@@ -15290,7 +15295,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>42948</v>
       </c>
@@ -15310,7 +15315,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>42979</v>
       </c>
@@ -15336,7 +15341,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43009</v>
       </c>
@@ -15356,7 +15361,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43040</v>
       </c>
@@ -15382,7 +15387,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -15402,7 +15407,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43070</v>
       </c>
@@ -15428,7 +15433,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="47" t="s">
         <v>404</v>
       </c>
@@ -15450,7 +15455,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43101</v>
       </c>
@@ -15470,7 +15475,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43132</v>
       </c>
@@ -15496,7 +15501,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>115</v>
@@ -15518,7 +15523,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>149</v>
@@ -15540,7 +15545,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43160</v>
       </c>
@@ -15564,7 +15569,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43191</v>
       </c>
@@ -15584,7 +15589,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43221</v>
       </c>
@@ -15608,7 +15613,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>107</v>
@@ -15630,7 +15635,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>418</v>
@@ -15650,7 +15655,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43252</v>
       </c>
@@ -15676,7 +15681,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>419</v>
@@ -15696,7 +15701,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43282</v>
       </c>
@@ -15720,7 +15725,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43313</v>
       </c>
@@ -15744,7 +15749,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43344</v>
       </c>
@@ -15768,7 +15773,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43374</v>
       </c>
@@ -15794,7 +15799,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>115</v>
@@ -15816,7 +15821,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>424</v>
@@ -15836,7 +15841,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43405</v>
       </c>
@@ -15862,7 +15867,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>427</v>
@@ -15882,7 +15887,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43435</v>
       </c>
@@ -15906,7 +15911,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="47" t="s">
         <v>400</v>
       </c>
@@ -15928,7 +15933,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43466</v>
       </c>
@@ -15948,7 +15953,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43497</v>
       </c>
@@ -15974,7 +15979,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>43525</v>
       </c>
@@ -15994,7 +15999,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43556</v>
       </c>
@@ -16020,7 +16025,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43586</v>
       </c>
@@ -16046,7 +16051,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>43617</v>
       </c>
@@ -16072,7 +16077,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43647</v>
       </c>
@@ -16098,7 +16103,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43678</v>
       </c>
@@ -16124,7 +16129,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>107</v>
@@ -16146,7 +16151,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>107</v>
@@ -16168,7 +16173,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43709</v>
       </c>
@@ -16194,7 +16199,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>149</v>
@@ -16216,7 +16221,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>91</v>
@@ -16238,7 +16243,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>201</v>
@@ -16258,7 +16263,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43739</v>
       </c>
@@ -16284,7 +16289,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>201</v>
@@ -16304,7 +16309,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43770</v>
       </c>
@@ -16330,7 +16335,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>149</v>
@@ -16352,7 +16357,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43800</v>
       </c>
@@ -16378,7 +16383,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>201</v>
@@ -16398,7 +16403,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="47" t="s">
         <v>401</v>
       </c>
@@ -16416,7 +16421,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43831</v>
       </c>
@@ -16440,7 +16445,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>43862</v>
       </c>
@@ -16460,7 +16465,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43891</v>
       </c>
@@ -16480,7 +16485,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43922</v>
       </c>
@@ -16500,7 +16505,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43952</v>
       </c>
@@ -16520,7 +16525,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43983</v>
       </c>
@@ -16540,7 +16545,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44013</v>
       </c>
@@ -16560,7 +16565,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44044</v>
       </c>
@@ -16580,7 +16585,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44075</v>
       </c>
@@ -16600,7 +16605,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44105</v>
       </c>
@@ -16620,7 +16625,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44136</v>
       </c>
@@ -16640,7 +16645,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44166</v>
       </c>
@@ -16666,7 +16671,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="47" t="s">
         <v>402</v>
       </c>
@@ -16688,7 +16693,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44197</v>
       </c>
@@ -16708,7 +16713,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44228</v>
       </c>
@@ -16728,7 +16733,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44256</v>
       </c>
@@ -16748,7 +16753,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44287</v>
       </c>
@@ -16768,7 +16773,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44317</v>
       </c>
@@ -16788,7 +16793,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44348</v>
       </c>
@@ -16808,7 +16813,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44378</v>
       </c>
@@ -16828,7 +16833,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44409</v>
       </c>
@@ -16848,7 +16853,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44440</v>
       </c>
@@ -16868,7 +16873,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44470</v>
       </c>
@@ -16888,7 +16893,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44501</v>
       </c>
@@ -16912,7 +16917,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>439</v>
@@ -16934,7 +16939,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44531</v>
       </c>
@@ -16954,7 +16959,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="47" t="s">
         <v>444</v>
       </c>
@@ -16972,7 +16977,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44562</v>
       </c>
@@ -16992,7 +16997,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44593</v>
       </c>
@@ -17012,7 +17017,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44621</v>
       </c>
@@ -17038,7 +17043,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44652</v>
       </c>
@@ -17058,7 +17063,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>44682</v>
       </c>
@@ -17078,7 +17083,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44713</v>
       </c>
@@ -17102,7 +17107,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>201</v>
@@ -17122,7 +17127,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>107</v>
@@ -17144,7 +17149,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>201</v>
@@ -17164,7 +17169,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>107</v>
@@ -17186,7 +17191,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44743</v>
       </c>
@@ -17212,7 +17217,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44774</v>
       </c>
@@ -17238,7 +17243,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44805</v>
       </c>
@@ -17258,7 +17263,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44835</v>
       </c>
@@ -17284,7 +17289,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>107</v>
@@ -17306,7 +17311,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44866</v>
       </c>
@@ -17326,7 +17331,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44896</v>
       </c>
@@ -17352,7 +17357,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="47" t="s">
         <v>448</v>
       </c>
@@ -17370,7 +17375,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44927</v>
       </c>
@@ -17394,7 +17399,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44958</v>
       </c>
@@ -17414,7 +17419,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44986</v>
       </c>
@@ -17434,7 +17439,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45017</v>
       </c>
@@ -17454,11 +17459,13 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45047</v>
       </c>
-      <c r="B575" s="15"/>
+      <c r="B575" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="C575" s="13">
         <v>1.25</v>
       </c>
@@ -17469,97 +17476,105 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H575" s="42"/>
+      <c r="H575" s="42">
+        <v>1</v>
+      </c>
       <c r="I575" s="9"/>
       <c r="J575" s="12"/>
-      <c r="K575" s="15"/>
-    </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A576" s="40">
+      <c r="K575" s="58">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="40"/>
+      <c r="B576" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C576" s="13"/>
+      <c r="D576" s="42"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="15"/>
+      <c r="G576" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="42"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="12"/>
+      <c r="K576" s="58" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="40">
         <v>45088</v>
       </c>
-      <c r="B576" s="20"/>
-      <c r="C576" s="13">
+      <c r="B577" s="20"/>
+      <c r="C577" s="13">
         <v>0.45799999999999991</v>
       </c>
-      <c r="D576" s="39"/>
-      <c r="E576" s="9"/>
-      <c r="F576" s="20"/>
-      <c r="G576" s="13">
+      <c r="D577" s="39"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="20"/>
+      <c r="G577" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>0.45799999999999991</v>
       </c>
-      <c r="H576" s="39"/>
-      <c r="I576" s="9"/>
-      <c r="J576" s="11"/>
-      <c r="K576" s="20"/>
-    </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A577" s="51"/>
-      <c r="B577" s="52" t="s">
-        <v>461</v>
-      </c>
-      <c r="C577" s="53"/>
-      <c r="D577" s="52"/>
-      <c r="E577" s="54"/>
-      <c r="F577" s="11"/>
-      <c r="G577" s="13"/>
-      <c r="H577" s="11"/>
+      <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A578" s="40"/>
-      <c r="B578" s="11"/>
-      <c r="C578" s="13"/>
-      <c r="D578" s="55" t="s">
-        <v>463</v>
-      </c>
-      <c r="E578" s="9"/>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" s="51"/>
+      <c r="B578" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="C578" s="53"/>
+      <c r="D578" s="52"/>
+      <c r="E578" s="54"/>
       <c r="F578" s="11"/>
       <c r="G578" s="13"/>
-      <c r="H578" s="55" t="s">
-        <v>464</v>
-      </c>
+      <c r="H578" s="11"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="11"/>
-      <c r="C579" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="D579" s="11"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="55" t="s">
+        <v>463</v>
+      </c>
       <c r="E579" s="9"/>
       <c r="F579" s="11"/>
-      <c r="G579" s="53" t="s">
+      <c r="G579" s="13"/>
+      <c r="H579" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="40"/>
+      <c r="B580" s="11"/>
+      <c r="C580" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="H579" s="52"/>
-      <c r="I579" s="54"/>
-      <c r="J579" s="52"/>
-      <c r="K579" s="56"/>
-    </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A580" s="40"/>
-      <c r="B580" s="20"/>
-      <c r="C580" s="13"/>
-      <c r="D580" s="39"/>
+      <c r="D580" s="11"/>
       <c r="E580" s="9"/>
-      <c r="F580" s="20"/>
-      <c r="G580" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H580" s="39"/>
-      <c r="I580" s="9"/>
-      <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
-    </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F580" s="11"/>
+      <c r="G580" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="H580" s="52"/>
+      <c r="I580" s="54"/>
+      <c r="J580" s="52"/>
+      <c r="K580" s="56"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17575,7 +17590,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17591,7 +17606,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17607,7 +17622,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17623,7 +17638,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17639,7 +17654,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17655,7 +17670,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17671,7 +17686,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17687,7 +17702,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17703,7 +17718,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17719,7 +17734,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17735,7 +17750,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17751,7 +17766,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17767,7 +17782,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17783,7 +17798,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17799,7 +17814,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17815,7 +17830,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17831,7 +17846,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17846,6 +17861,22 @@
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599" s="40"/>
+      <c r="B599" s="20"/>
+      <c r="C599" s="13"/>
+      <c r="D599" s="39"/>
+      <c r="E599" s="9"/>
+      <c r="F599" s="20"/>
+      <c r="G599" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H599" s="39"/>
+      <c r="I599" s="9"/>
+      <c r="J599" s="11"/>
+      <c r="K599" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17862,10 +17893,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17888,7 +17919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17896,34 +17927,34 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="68" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17952,7 +17983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17980,19 +18011,19 @@
         <v>0.83300000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -18007,17 +18038,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>328.72800000000012</v>
+        <v>327.72800000000012</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -18045,7 +18076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18071,7 +18102,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18097,7 +18128,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18123,7 +18154,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18149,7 +18180,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18175,7 +18206,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18201,7 +18232,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18227,7 +18258,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18247,7 +18278,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18267,7 +18298,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18287,7 +18318,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18308,7 +18339,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18329,7 +18360,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18350,7 +18381,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18371,7 +18402,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18392,7 +18423,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18413,7 +18444,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18434,7 +18465,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18455,7 +18486,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18476,7 +18507,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18497,7 +18528,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18518,7 +18549,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18539,7 +18570,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18560,7 +18591,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18581,7 +18612,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18602,7 +18633,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18623,7 +18654,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18644,7 +18675,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18665,7 +18696,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18686,7 +18717,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18707,7 +18738,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18716,7 +18747,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18725,7 +18756,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18734,7 +18765,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18743,7 +18774,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18752,7 +18783,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18761,7 +18792,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18770,7 +18801,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18779,7 +18810,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18788,7 +18819,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18797,7 +18828,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18806,7 +18837,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18815,7 +18846,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18824,7 +18855,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18833,7 +18864,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18842,7 +18873,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18851,7 +18882,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18860,7 +18891,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18869,7 +18900,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18878,7 +18909,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18887,7 +18918,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18896,7 +18927,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18905,7 +18936,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18914,7 +18945,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18923,7 +18954,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18932,7 +18963,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18941,7 +18972,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18950,7 +18981,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18959,7 +18990,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18968,7 +18999,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
